--- a/plantillas/plantilla1.xlsx
+++ b/plantillas/plantilla1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SHIP TO:</t>
   </si>
@@ -57,35 +57,13 @@
   </si>
   <si>
     <t>----------------</t>
-  </si>
-  <si>
-    <t>FIJOS EN LA PLANTILLA</t>
-  </si>
-  <si>
-    <t>LISTOS TRAIDOS DE LA INF BRINDADA</t>
-  </si>
-  <si>
-    <t>COPIADAS TAL CUAL  YA QUE NO SE DE DONDE VIENE LA INFORMACIÓN, SI ES FIJA O SON DATOS BRINDADOS</t>
-  </si>
-  <si>
-    <t>ES ORAL B O PROVEEDORA?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +94,33 @@
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,20 +135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -160,74 +156,75 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -535,45 +532,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="63.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="12"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -583,149 +580,149 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="22"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="9"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="7"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="22"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="8"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="4"/>
       <c r="F15" s="7"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -735,105 +732,186 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="16" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="16" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="H43" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="14"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="24"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="15"/>
-      <c r="C55" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="14"/>
-      <c r="C56" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="19"/>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="13"/>
-      <c r="C58" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/plantillas/plantilla1.xlsx
+++ b/plantillas/plantilla1.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMM\Desktop\sistemas\SFacturacion\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\Sistemas\facturacion_procter\Nuevo_Sistema_Fact\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>SHIP TO:</t>
   </si>
@@ -57,12 +57,51 @@
   </si>
   <si>
     <t>----------------</t>
+  </si>
+  <si>
+    <t>ATTN: A/P DEPARTMENT</t>
+  </si>
+  <si>
+    <t>100 DAYS DUE NET</t>
+  </si>
+  <si>
+    <t>P&amp;G CONTACT: ZHEN CHEN, Phone: 00 86 186 6485 7490, e-mail: chen.z.15@pg.com</t>
+  </si>
+  <si>
+    <t>MATERIALS RELEASED FROM BCW</t>
+  </si>
+  <si>
+    <t>WAREHOUSE AGAINST:</t>
+  </si>
+  <si>
+    <t>BOL# P500928181 (09/28)</t>
+  </si>
+  <si>
+    <t>ORAL-B LABORATORIES</t>
+  </si>
+  <si>
+    <t>TAX ID No: 42-1497813</t>
+  </si>
+  <si>
+    <t>1832 LOWER MUSCATINE ROAD</t>
+  </si>
+  <si>
+    <t>IOWA CITY, IA 52240</t>
+  </si>
+  <si>
+    <t>U.S.A.</t>
+  </si>
+  <si>
+    <t>PROCTER &amp; GAMBLE COMPANY</t>
+  </si>
+  <si>
+    <t>PO BOX 701</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +198,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +247,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,12 +262,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
+    <cellStyle name="Buena" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -532,45 +574,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="63.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="20.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="21"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -580,69 +622,85 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="14"/>
+      <c r="D4" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="14"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="15"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="15"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="17"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -652,7 +710,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -662,17 +720,21 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -682,27 +744,31 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="15"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="15"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -712,17 +778,19 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="17"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -732,17 +800,17 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="12" t="s">
         <v>4</v>
       </c>
@@ -750,15 +818,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="12" t="s">
         <v>5</v>
       </c>
@@ -766,117 +834,117 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.4">
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -884,33 +952,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D44" s="18" t="s">
+    <row r="44" spans="4:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="D44" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="9"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.4">
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" ht="15.4" x14ac:dyDescent="0.45">
       <c r="B58"/>
     </row>
   </sheetData>
@@ -921,6 +989,6 @@
     <mergeCell ref="E1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plantillas/plantilla1.xlsx
+++ b/plantillas/plantilla1.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\Sistemas\facturacion_procter\Nuevo_Sistema_Fact\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMM\Desktop\sistemas\sfact\Nuevo_Sistema_Fact\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,32 +151,13 @@
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Arial Rounded MT Bold"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -196,9 +177,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,15 +194,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,11 +219,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,7 +242,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Buena" xfId="2" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -574,45 +552,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="13" customWidth="1"/>
     <col min="4" max="4" width="41" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="63.86328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.3984375" style="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -622,175 +600,175 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="17"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="16"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="17"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="15"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="17"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="17"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -800,185 +778,185 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="12" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="12" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
       <c r="H43" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="4:8" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="D44" s="20" t="s">
+    <row r="44" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D44" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.4">
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="10"/>
-    </row>
-    <row r="55" spans="2:2" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58"/>
     </row>
   </sheetData>
